--- a/Nature_NETS_NYPS_68Bus_HybridSGIBR.xlsx
+++ b/Nature_NETS_NYPS_68Bus_HybridSGIBR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-Communication-Isomorphism\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB265051-54B0-4BF4-B3FD-22FABCED141B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F51DF0E-FD77-4D59-B740-13773FE0172D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -650,7 +650,7 @@
   <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E4" sqref="E4:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="6">
-        <v>-1.5</v>
+        <v>-1.6</v>
       </c>
       <c r="F4" s="8">
         <v>0</v>
@@ -793,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="6">
-        <v>-1.5</v>
+        <v>-1.6</v>
       </c>
       <c r="F5" s="8">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="6">
-        <v>-1.5</v>
+        <v>-1.6</v>
       </c>
       <c r="F6" s="8">
         <v>0</v>
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="6">
-        <v>-1.5</v>
+        <v>-1.6</v>
       </c>
       <c r="F7" s="8">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="6">
-        <v>-1.5</v>
+        <v>-1.6</v>
       </c>
       <c r="F8" s="8">
         <v>0</v>
@@ -945,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="6">
-        <v>-1.5</v>
+        <v>-1.6</v>
       </c>
       <c r="F9" s="8">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="6">
-        <v>-1.5</v>
+        <v>-1.6</v>
       </c>
       <c r="F10" s="8">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="6">
-        <v>-1.5</v>
+        <v>-1.6</v>
       </c>
       <c r="F11" s="8">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="6">
-        <v>-1.5</v>
+        <v>-1.6</v>
       </c>
       <c r="F12" s="8">
         <v>0</v>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="6">
-        <v>-1.5</v>
+        <v>-1.6</v>
       </c>
       <c r="F13" s="8">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="6">
-        <v>-1.5</v>
+        <v>-1.6</v>
       </c>
       <c r="F14" s="8">
         <v>0</v>
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="6">
-        <v>-1.5</v>
+        <v>-1.6</v>
       </c>
       <c r="F15" s="8">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="6">
-        <v>-1.5</v>
+        <v>-1.6</v>
       </c>
       <c r="F16" s="8">
         <v>0</v>
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="6">
-        <v>-1.5</v>
+        <v>-1.6</v>
       </c>
       <c r="F17" s="8">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="6">
-        <v>-1.5</v>
+        <v>-1.6</v>
       </c>
       <c r="F18" s="14">
         <v>0</v>
@@ -1331,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H19" s="6">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H20" s="6">
         <v>0</v>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H22" s="6">
         <v>0</v>
@@ -1483,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H23" s="6">
         <v>0</v>
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H25" s="6">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H26" s="6">
         <v>0</v>
@@ -1635,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H27" s="6">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H28" s="6">
         <v>0</v>
@@ -1711,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H29" s="6">
         <v>0</v>
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H30" s="6">
         <v>0</v>
@@ -1787,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H31" s="6">
         <v>0</v>
@@ -1847,7 +1847,7 @@
       <c r="A33" s="6">
         <v>31</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="8">
         <v>3</v>
       </c>
       <c r="C33" s="8">
@@ -1885,7 +1885,7 @@
       <c r="A34" s="6">
         <v>32</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="8">
         <v>3</v>
       </c>
       <c r="C34" s="6">
@@ -1923,7 +1923,7 @@
       <c r="A35" s="6">
         <v>33</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="8">
         <v>3</v>
       </c>
       <c r="C35" s="8">
@@ -1939,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H35" s="6">
         <v>0</v>
@@ -1961,7 +1961,7 @@
       <c r="A36" s="6">
         <v>34</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="8">
         <v>3</v>
       </c>
       <c r="C36" s="6">
@@ -1999,7 +1999,7 @@
       <c r="A37" s="6">
         <v>35</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="8">
         <v>3</v>
       </c>
       <c r="C37" s="8">
@@ -2037,7 +2037,7 @@
       <c r="A38" s="6">
         <v>36</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="8">
         <v>3</v>
       </c>
       <c r="C38" s="6">
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H38" s="6">
         <v>0</v>
@@ -2075,7 +2075,7 @@
       <c r="A39" s="6">
         <v>37</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="8">
         <v>3</v>
       </c>
       <c r="C39" s="8">
@@ -2113,7 +2113,7 @@
       <c r="A40" s="6">
         <v>38</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="8">
         <v>3</v>
       </c>
       <c r="C40" s="6">
@@ -2151,7 +2151,7 @@
       <c r="A41" s="6">
         <v>39</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="8">
         <v>3</v>
       </c>
       <c r="C41" s="8">
@@ -2167,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H41" s="6">
         <v>0</v>
@@ -2189,7 +2189,7 @@
       <c r="A42" s="6">
         <v>40</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="8">
         <v>3</v>
       </c>
       <c r="C42" s="6">
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H42" s="6">
         <v>0</v>
@@ -2227,7 +2227,7 @@
       <c r="A43" s="6">
         <v>41</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="8">
         <v>3</v>
       </c>
       <c r="C43" s="8">
@@ -2243,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H43" s="6">
         <v>0</v>
@@ -2265,7 +2265,7 @@
       <c r="A44" s="6">
         <v>42</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="8">
         <v>3</v>
       </c>
       <c r="C44" s="6">
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H44" s="6">
         <v>0</v>
@@ -2303,7 +2303,7 @@
       <c r="A45" s="6">
         <v>43</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="8">
         <v>3</v>
       </c>
       <c r="C45" s="8">
@@ -2341,7 +2341,7 @@
       <c r="A46" s="6">
         <v>44</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="8">
         <v>3</v>
       </c>
       <c r="C46" s="6">
@@ -2357,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H46" s="6">
         <v>0</v>
@@ -2379,7 +2379,7 @@
       <c r="A47" s="6">
         <v>45</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="8">
         <v>3</v>
       </c>
       <c r="C47" s="8">
@@ -2395,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H47" s="6">
         <v>0</v>
@@ -2417,7 +2417,7 @@
       <c r="A48" s="6">
         <v>46</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="8">
         <v>3</v>
       </c>
       <c r="C48" s="6">
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H48" s="6">
         <v>0</v>
@@ -2455,7 +2455,7 @@
       <c r="A49" s="6">
         <v>47</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="8">
         <v>3</v>
       </c>
       <c r="C49" s="8">
@@ -2471,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H49" s="6">
         <v>0</v>
@@ -2493,7 +2493,7 @@
       <c r="A50" s="6">
         <v>48</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="8">
         <v>3</v>
       </c>
       <c r="C50" s="6">
@@ -2509,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H50" s="6">
         <v>0</v>
@@ -2531,7 +2531,7 @@
       <c r="A51" s="6">
         <v>49</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="8">
         <v>3</v>
       </c>
       <c r="C51" s="8">
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H51" s="6">
         <v>0</v>
@@ -2569,7 +2569,7 @@
       <c r="A52" s="6">
         <v>50</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="8">
         <v>3</v>
       </c>
       <c r="C52" s="6">
@@ -2585,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H52" s="6">
         <v>0</v>
@@ -2607,7 +2607,7 @@
       <c r="A53" s="6">
         <v>51</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="8">
         <v>3</v>
       </c>
       <c r="C53" s="8">
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H53" s="6">
         <v>0</v>
@@ -2645,7 +2645,7 @@
       <c r="A54" s="6">
         <v>52</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54" s="8">
         <v>3</v>
       </c>
       <c r="C54" s="6">
@@ -2661,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H54" s="6">
         <v>0</v>
@@ -2683,7 +2683,7 @@
       <c r="A55" s="6">
         <v>53</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55" s="8">
         <v>3</v>
       </c>
       <c r="C55" s="8">
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H55" s="6">
         <v>0</v>
@@ -2721,7 +2721,7 @@
       <c r="A56" s="6">
         <v>54</v>
       </c>
-      <c r="B56" s="6">
+      <c r="B56" s="8">
         <v>3</v>
       </c>
       <c r="C56" s="6">
@@ -2759,7 +2759,7 @@
       <c r="A57" s="6">
         <v>55</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B57" s="8">
         <v>3</v>
       </c>
       <c r="C57" s="8">
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H57" s="6">
         <v>0</v>
@@ -2797,7 +2797,7 @@
       <c r="A58" s="6">
         <v>56</v>
       </c>
-      <c r="B58" s="6">
+      <c r="B58" s="8">
         <v>3</v>
       </c>
       <c r="C58" s="6">
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H58" s="6">
         <v>0</v>
@@ -2835,7 +2835,7 @@
       <c r="A59" s="6">
         <v>57</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B59" s="8">
         <v>3</v>
       </c>
       <c r="C59" s="8">
@@ -2873,7 +2873,7 @@
       <c r="A60">
         <v>58</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="8">
         <v>3</v>
       </c>
       <c r="C60">
@@ -2911,7 +2911,7 @@
       <c r="A61">
         <v>59</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="8">
         <v>3</v>
       </c>
       <c r="C61">
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -2949,7 +2949,7 @@
       <c r="A62">
         <v>60</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="8">
         <v>3</v>
       </c>
       <c r="C62">
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -2987,7 +2987,7 @@
       <c r="A63">
         <v>61</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="8">
         <v>3</v>
       </c>
       <c r="C63">
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="G63" s="6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -3025,7 +3025,7 @@
       <c r="A64">
         <v>62</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="8">
         <v>3</v>
       </c>
       <c r="C64">
@@ -3063,7 +3063,7 @@
       <c r="A65">
         <v>63</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="8">
         <v>3</v>
       </c>
       <c r="C65">
@@ -3101,7 +3101,7 @@
       <c r="A66">
         <v>64</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="8">
         <v>3</v>
       </c>
       <c r="C66">
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="G66" s="6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -3139,7 +3139,7 @@
       <c r="A67">
         <v>65</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="8">
         <v>3</v>
       </c>
       <c r="C67">
@@ -3177,7 +3177,7 @@
       <c r="A68">
         <v>66</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="8">
         <v>3</v>
       </c>
       <c r="C68">
@@ -3215,7 +3215,7 @@
       <c r="A69">
         <v>67</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="8">
         <v>3</v>
       </c>
       <c r="C69">
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="G69" s="6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -3253,7 +3253,7 @@
       <c r="A70">
         <v>68</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="8">
         <v>3</v>
       </c>
       <c r="C70">
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>0.05</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" ref="F5:F18" si="3">E9/5</f>
+        <f t="shared" ref="F9:F18" si="3">E9/5</f>
         <v>0.01</v>
       </c>
       <c r="H9">
@@ -4154,8 +4154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D00B5E-E2E7-41B8-8388-8931D474EA96}">
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/Nature_NETS_NYPS_68Bus_HybridSGIBR.xlsx
+++ b/Nature_NETS_NYPS_68Bus_HybridSGIBR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-Communication-Isomorphism\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yg934\GitHub\Power-Communication-Isomorphism\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F51DF0E-FD77-4D59-B740-13773FE0172D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5CC8BB-5AC7-4329-BB5D-D4D23333F050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="12852" windowWidth="19416" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -239,20 +239,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.00_ "/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -261,7 +261,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -269,7 +269,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -277,7 +277,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -285,13 +285,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -304,7 +304,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -340,31 +340,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -650,22 +649,22 @@
   <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E18"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="11.19921875" customWidth="1"/>
-    <col min="9" max="9" width="10.796875" customWidth="1"/>
-    <col min="10" max="10" width="11.1328125" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
@@ -703,14 +702,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="12">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11">
+    <row r="3" spans="1:12">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
         <v>1</v>
       </c>
       <c r="D3" s="6">
@@ -719,7 +718,7 @@
       <c r="E3" s="6">
         <v>0</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="13">
         <v>0</v>
       </c>
       <c r="G3" s="6">
@@ -741,7 +740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -755,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="6">
-        <v>-1.6</v>
+        <v>0</v>
       </c>
       <c r="F4" s="8">
         <v>0</v>
@@ -779,7 +778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -793,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="6">
-        <v>-1.6</v>
+        <v>0</v>
       </c>
       <c r="F5" s="8">
         <v>0</v>
@@ -817,7 +816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -831,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="6">
-        <v>-1.6</v>
+        <v>0</v>
       </c>
       <c r="F6" s="8">
         <v>0</v>
@@ -855,7 +854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -869,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="6">
-        <v>-1.6</v>
+        <v>-1</v>
       </c>
       <c r="F7" s="8">
         <v>0</v>
@@ -893,7 +892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -907,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="6">
-        <v>-1.6</v>
+        <v>0</v>
       </c>
       <c r="F8" s="8">
         <v>0</v>
@@ -931,7 +930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -945,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="6">
-        <v>-1.6</v>
+        <v>0</v>
       </c>
       <c r="F9" s="8">
         <v>0</v>
@@ -969,7 +968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -983,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="6">
-        <v>-1.6</v>
+        <v>0</v>
       </c>
       <c r="F10" s="8">
         <v>0</v>
@@ -1007,7 +1006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -1021,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="6">
-        <v>-1.6</v>
+        <v>0</v>
       </c>
       <c r="F11" s="8">
         <v>0</v>
@@ -1045,7 +1044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -1059,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="6">
-        <v>-1.6</v>
+        <v>0</v>
       </c>
       <c r="F12" s="8">
         <v>0</v>
@@ -1083,7 +1082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -1097,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="6">
-        <v>-1.6</v>
+        <v>0</v>
       </c>
       <c r="F13" s="8">
         <v>0</v>
@@ -1121,7 +1120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -1135,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="6">
-        <v>-1.6</v>
+        <v>0</v>
       </c>
       <c r="F14" s="8">
         <v>0</v>
@@ -1159,7 +1158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -1173,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="6">
-        <v>-1.6</v>
+        <v>0</v>
       </c>
       <c r="F15" s="8">
         <v>0</v>
@@ -1197,7 +1196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -1211,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="6">
-        <v>-1.6</v>
+        <v>0</v>
       </c>
       <c r="F16" s="8">
         <v>0</v>
@@ -1235,7 +1234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -1249,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="6">
-        <v>-1.6</v>
+        <v>0</v>
       </c>
       <c r="F17" s="8">
         <v>0</v>
@@ -1273,23 +1272,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A18" s="12">
+    <row r="18" spans="1:12">
+      <c r="A18" s="11">
         <v>16</v>
       </c>
-      <c r="B18" s="12">
-        <v>2</v>
-      </c>
-      <c r="C18" s="12">
+      <c r="B18" s="11">
+        <v>2</v>
+      </c>
+      <c r="C18" s="11">
         <v>1</v>
       </c>
       <c r="D18" s="6">
         <v>0</v>
       </c>
       <c r="E18" s="6">
-        <v>-1.6</v>
-      </c>
-      <c r="F18" s="14">
+        <v>0</v>
+      </c>
+      <c r="F18" s="13">
         <v>0</v>
       </c>
       <c r="G18" s="6">
@@ -1311,12 +1310,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12">
       <c r="A19" s="8">
         <v>17</v>
       </c>
       <c r="B19" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="8">
         <v>1</v>
@@ -1349,12 +1348,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12">
       <c r="A20" s="8">
         <v>18</v>
       </c>
       <c r="B20" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" s="6">
         <v>1</v>
@@ -1387,12 +1386,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12">
       <c r="A21" s="8">
         <v>19</v>
       </c>
       <c r="B21" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" s="8">
         <v>1</v>
@@ -1425,12 +1424,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12">
       <c r="A22" s="8">
         <v>20</v>
       </c>
       <c r="B22" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" s="6">
         <v>1</v>
@@ -1463,12 +1462,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12">
       <c r="A23" s="8">
         <v>21</v>
       </c>
       <c r="B23" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" s="8">
         <v>1</v>
@@ -1501,12 +1500,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12">
       <c r="A24" s="8">
         <v>22</v>
       </c>
       <c r="B24" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" s="6">
         <v>1</v>
@@ -1539,12 +1538,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12">
       <c r="A25" s="8">
         <v>23</v>
       </c>
       <c r="B25" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" s="8">
         <v>1</v>
@@ -1577,12 +1576,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12">
       <c r="A26" s="8">
         <v>24</v>
       </c>
       <c r="B26" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" s="6">
         <v>1</v>
@@ -1615,12 +1614,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12">
       <c r="A27" s="8">
         <v>25</v>
       </c>
       <c r="B27" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" s="8">
         <v>1</v>
@@ -1653,12 +1652,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12">
       <c r="A28" s="8">
         <v>26</v>
       </c>
       <c r="B28" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" s="6">
         <v>1</v>
@@ -1691,12 +1690,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12">
       <c r="A29" s="8">
         <v>27</v>
       </c>
       <c r="B29" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" s="8">
         <v>1</v>
@@ -1729,12 +1728,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12">
       <c r="A30" s="8">
         <v>28</v>
       </c>
       <c r="B30" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" s="6">
         <v>1</v>
@@ -1767,12 +1766,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12">
       <c r="A31" s="8">
         <v>29</v>
       </c>
       <c r="B31" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" s="8">
         <v>1</v>
@@ -1805,12 +1804,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12">
       <c r="A32" s="8">
         <v>30</v>
       </c>
       <c r="B32" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32" s="6">
         <v>1</v>
@@ -1843,12 +1842,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12">
       <c r="A33" s="6">
         <v>31</v>
       </c>
       <c r="B33" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" s="8">
         <v>1</v>
@@ -1881,12 +1880,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12">
       <c r="A34" s="6">
         <v>32</v>
       </c>
       <c r="B34" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34" s="6">
         <v>1</v>
@@ -1919,12 +1918,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12">
       <c r="A35" s="6">
         <v>33</v>
       </c>
       <c r="B35" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35" s="8">
         <v>1</v>
@@ -1957,12 +1956,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12">
       <c r="A36" s="6">
         <v>34</v>
       </c>
       <c r="B36" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C36" s="6">
         <v>1</v>
@@ -1995,12 +1994,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12">
       <c r="A37" s="6">
         <v>35</v>
       </c>
       <c r="B37" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37" s="8">
         <v>1</v>
@@ -2033,12 +2032,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12">
       <c r="A38" s="6">
         <v>36</v>
       </c>
       <c r="B38" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C38" s="6">
         <v>1</v>
@@ -2071,12 +2070,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12">
       <c r="A39" s="6">
         <v>37</v>
       </c>
       <c r="B39" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39" s="8">
         <v>1</v>
@@ -2109,12 +2108,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12">
       <c r="A40" s="6">
         <v>38</v>
       </c>
       <c r="B40" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40" s="6">
         <v>1</v>
@@ -2147,12 +2146,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12">
       <c r="A41" s="6">
         <v>39</v>
       </c>
       <c r="B41" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41" s="8">
         <v>1</v>
@@ -2185,12 +2184,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12">
       <c r="A42" s="6">
         <v>40</v>
       </c>
       <c r="B42" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C42" s="6">
         <v>1</v>
@@ -2223,12 +2222,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12">
       <c r="A43" s="6">
         <v>41</v>
       </c>
       <c r="B43" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43" s="8">
         <v>1</v>
@@ -2261,12 +2260,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12">
       <c r="A44" s="6">
         <v>42</v>
       </c>
       <c r="B44" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C44" s="6">
         <v>1</v>
@@ -2299,12 +2298,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12">
       <c r="A45" s="6">
         <v>43</v>
       </c>
       <c r="B45" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C45" s="8">
         <v>1</v>
@@ -2337,12 +2336,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12">
       <c r="A46" s="6">
         <v>44</v>
       </c>
       <c r="B46" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C46" s="6">
         <v>1</v>
@@ -2375,12 +2374,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12">
       <c r="A47" s="6">
         <v>45</v>
       </c>
       <c r="B47" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C47" s="8">
         <v>1</v>
@@ -2413,12 +2412,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:12">
       <c r="A48" s="6">
         <v>46</v>
       </c>
       <c r="B48" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C48" s="6">
         <v>1</v>
@@ -2451,12 +2450,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:12">
       <c r="A49" s="6">
         <v>47</v>
       </c>
       <c r="B49" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C49" s="8">
         <v>1</v>
@@ -2489,12 +2488,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:12">
       <c r="A50" s="6">
         <v>48</v>
       </c>
       <c r="B50" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C50" s="6">
         <v>1</v>
@@ -2527,12 +2526,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:12">
       <c r="A51" s="6">
         <v>49</v>
       </c>
       <c r="B51" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C51" s="8">
         <v>1</v>
@@ -2565,12 +2564,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:12">
       <c r="A52" s="6">
         <v>50</v>
       </c>
       <c r="B52" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C52" s="6">
         <v>1</v>
@@ -2603,12 +2602,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:12">
       <c r="A53" s="6">
         <v>51</v>
       </c>
       <c r="B53" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C53" s="8">
         <v>1</v>
@@ -2641,12 +2640,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:12">
       <c r="A54" s="6">
         <v>52</v>
       </c>
       <c r="B54" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C54" s="6">
         <v>1</v>
@@ -2679,12 +2678,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:12">
       <c r="A55" s="6">
         <v>53</v>
       </c>
       <c r="B55" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C55" s="8">
         <v>1</v>
@@ -2717,12 +2716,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:12">
       <c r="A56" s="6">
         <v>54</v>
       </c>
       <c r="B56" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C56" s="6">
         <v>1</v>
@@ -2755,12 +2754,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:12">
       <c r="A57" s="6">
         <v>55</v>
       </c>
       <c r="B57" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C57" s="8">
         <v>1</v>
@@ -2793,12 +2792,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:12">
       <c r="A58" s="6">
         <v>56</v>
       </c>
       <c r="B58" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C58" s="6">
         <v>1</v>
@@ -2831,12 +2830,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:12">
       <c r="A59" s="6">
         <v>57</v>
       </c>
       <c r="B59" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C59" s="8">
         <v>1</v>
@@ -2869,12 +2868,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:12">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -2907,12 +2906,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:12">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -2945,12 +2944,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:12">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -2983,12 +2982,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:12">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -3021,12 +3020,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:12">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -3059,12 +3058,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:12">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -3097,12 +3096,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:12">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -3135,12 +3134,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:12">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -3173,12 +3172,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:12">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -3211,12 +3210,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:12">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -3249,12 +3248,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:12">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -3298,34 +3297,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:I4"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.796875" customWidth="1"/>
-    <col min="2" max="2" width="29.53125" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="29.5546875" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" customWidth="1"/>
-    <col min="5" max="5" width="12.46484375" customWidth="1"/>
-    <col min="6" max="6" width="13.53125" customWidth="1"/>
-    <col min="7" max="7" width="13.796875" customWidth="1"/>
-    <col min="8" max="8" width="15.1328125" customWidth="1"/>
-    <col min="9" max="9" width="18.796875" customWidth="1"/>
-    <col min="10" max="10" width="18.53125" customWidth="1"/>
-    <col min="11" max="11" width="17.1328125" customWidth="1"/>
-    <col min="12" max="12" width="17.86328125" customWidth="1"/>
-    <col min="13" max="13" width="14.46484375" customWidth="1"/>
-    <col min="14" max="14" width="13.1328125" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" customWidth="1"/>
+    <col min="9" max="9" width="18.77734375" customWidth="1"/>
+    <col min="10" max="10" width="18.5546875" customWidth="1"/>
+    <col min="11" max="11" width="17.109375" customWidth="1"/>
+    <col min="12" max="12" width="17.88671875" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" customWidth="1"/>
+    <col min="14" max="14" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
@@ -3336,29 +3335,29 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="12">
+    <row r="3" spans="1:10">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
       <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="13">
-        <v>10</v>
-      </c>
-      <c r="D3" s="13">
+      <c r="C3" s="12">
+        <v>10</v>
+      </c>
+      <c r="D3" s="12">
         <v>5</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <f>E3/10</f>
         <v>1.0000000000000002E-6</v>
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -3381,7 +3380,7 @@
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -3403,7 +3402,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -3425,7 +3424,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -3447,7 +3446,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -3469,7 +3468,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -3491,7 +3490,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -3513,7 +3512,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -3535,7 +3534,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -3557,7 +3556,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -3579,7 +3578,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -3601,7 +3600,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -3623,7 +3622,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -3645,7 +3644,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -3667,8 +3666,8 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" s="12">
+    <row r="18" spans="1:9">
+      <c r="A18" s="11">
         <v>16</v>
       </c>
       <c r="B18" s="8">
@@ -3689,458 +3688,1109 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9">
       <c r="A19" s="8">
         <v>17</v>
       </c>
       <c r="B19" s="8">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E19">
+        <v>0.05</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" ref="F19:F70" si="4">E19/5</f>
+        <v>0.01</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="8">
         <v>18</v>
       </c>
       <c r="B20" s="8">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E20">
+        <v>0.05</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="8">
         <v>19</v>
       </c>
       <c r="B21" s="8">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E21">
+        <v>0.05</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="8">
         <v>20</v>
       </c>
       <c r="B22" s="8">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E22">
+        <v>0.05</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="8">
         <v>21</v>
       </c>
       <c r="B23" s="8">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E23">
+        <v>0.05</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="H23">
+        <v>10</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="8">
         <v>22</v>
       </c>
       <c r="B24" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="E24">
+        <v>0.05</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="H24">
+        <v>10</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="8">
         <v>23</v>
       </c>
       <c r="B25" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="E25">
+        <v>0.05</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="H25">
+        <v>10</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="8">
         <v>24</v>
       </c>
       <c r="B26" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="E26">
+        <v>0.05</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="H26">
+        <v>10</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="8">
         <v>25</v>
       </c>
       <c r="B27" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="E27">
+        <v>0.05</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="H27">
+        <v>10</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="8">
         <v>26</v>
       </c>
       <c r="B28" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="E28">
+        <v>0.05</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="H28">
+        <v>10</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="8">
         <v>27</v>
       </c>
       <c r="B29" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="E29">
+        <v>0.05</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="H29">
+        <v>10</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="8">
         <v>28</v>
       </c>
       <c r="B30" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="E30">
+        <v>0.05</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="H30">
+        <v>10</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="8">
         <v>29</v>
       </c>
       <c r="B31" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="E31">
+        <v>0.05</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="H31">
+        <v>10</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="8">
         <v>30</v>
       </c>
       <c r="B32" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="E32">
+        <v>0.05</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="H32">
+        <v>10</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="6">
         <v>31</v>
       </c>
       <c r="B33" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="E33">
+        <v>0.05</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="H33">
+        <v>10</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="6">
         <v>32</v>
       </c>
       <c r="B34" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="E34">
+        <v>0.05</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="H34">
+        <v>10</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="6">
         <v>33</v>
       </c>
       <c r="B35" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="E35">
+        <v>0.05</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="H35">
+        <v>10</v>
+      </c>
+      <c r="I35" s="1">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="6">
         <v>34</v>
       </c>
       <c r="B36" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="E36">
+        <v>0.05</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="H36">
+        <v>10</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="6">
         <v>35</v>
       </c>
       <c r="B37" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="E37">
+        <v>0.05</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="H37">
+        <v>10</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="6">
         <v>36</v>
       </c>
       <c r="B38" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="E38">
+        <v>0.05</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="H38">
+        <v>10</v>
+      </c>
+      <c r="I38" s="1">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="6">
         <v>37</v>
       </c>
       <c r="B39" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="E39">
+        <v>0.05</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="H39">
+        <v>10</v>
+      </c>
+      <c r="I39" s="1">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="6">
         <v>38</v>
       </c>
       <c r="B40" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="E40">
+        <v>0.05</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="H40">
+        <v>10</v>
+      </c>
+      <c r="I40" s="1">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="6">
         <v>39</v>
       </c>
       <c r="B41" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="E41">
+        <v>0.05</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="H41">
+        <v>10</v>
+      </c>
+      <c r="I41" s="1">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="6">
         <v>40</v>
       </c>
       <c r="B42" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="E42">
+        <v>0.05</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="H42">
+        <v>10</v>
+      </c>
+      <c r="I42" s="1">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="6">
         <v>41</v>
       </c>
       <c r="B43" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="E43">
+        <v>0.05</v>
+      </c>
+      <c r="F43" s="2">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="H43">
+        <v>10</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="6">
         <v>42</v>
       </c>
       <c r="B44" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="E44">
+        <v>0.05</v>
+      </c>
+      <c r="F44" s="2">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="H44">
+        <v>10</v>
+      </c>
+      <c r="I44" s="1">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="6">
         <v>43</v>
       </c>
       <c r="B45" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="E45">
+        <v>0.05</v>
+      </c>
+      <c r="F45" s="2">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="H45">
+        <v>10</v>
+      </c>
+      <c r="I45" s="1">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="6">
         <v>44</v>
       </c>
       <c r="B46" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="E46">
+        <v>0.05</v>
+      </c>
+      <c r="F46" s="2">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="H46">
+        <v>10</v>
+      </c>
+      <c r="I46" s="1">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="6">
         <v>45</v>
       </c>
       <c r="B47" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="E47">
+        <v>0.05</v>
+      </c>
+      <c r="F47" s="2">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="H47">
+        <v>10</v>
+      </c>
+      <c r="I47" s="1">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="6">
         <v>46</v>
       </c>
       <c r="B48" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="E48">
+        <v>0.05</v>
+      </c>
+      <c r="F48" s="2">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="H48">
+        <v>10</v>
+      </c>
+      <c r="I48" s="1">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="6">
         <v>47</v>
       </c>
       <c r="B49" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="E49">
+        <v>0.05</v>
+      </c>
+      <c r="F49" s="2">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="H49">
+        <v>10</v>
+      </c>
+      <c r="I49" s="1">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="6">
         <v>48</v>
       </c>
       <c r="B50" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="E50">
+        <v>0.05</v>
+      </c>
+      <c r="F50" s="2">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="H50">
+        <v>10</v>
+      </c>
+      <c r="I50" s="1">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="6">
         <v>49</v>
       </c>
       <c r="B51" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="E51">
+        <v>0.05</v>
+      </c>
+      <c r="F51" s="2">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="H51">
+        <v>10</v>
+      </c>
+      <c r="I51" s="1">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="6">
         <v>50</v>
       </c>
       <c r="B52" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="E52">
+        <v>0.05</v>
+      </c>
+      <c r="F52" s="2">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="H52">
+        <v>10</v>
+      </c>
+      <c r="I52" s="1">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="6">
         <v>51</v>
       </c>
       <c r="B53" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="E53">
+        <v>0.05</v>
+      </c>
+      <c r="F53" s="2">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="H53">
+        <v>10</v>
+      </c>
+      <c r="I53" s="1">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="6">
         <v>52</v>
       </c>
       <c r="B54" s="8">
-        <v>100</v>
-      </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54">
+        <v>0.05</v>
+      </c>
+      <c r="F54" s="2">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="H54">
+        <v>10</v>
+      </c>
+      <c r="I54" s="1">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="6">
         <v>53</v>
       </c>
       <c r="B55" s="8">
-        <v>100</v>
-      </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55">
+        <v>0.05</v>
+      </c>
+      <c r="F55" s="2">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="H55">
+        <v>10</v>
+      </c>
+      <c r="I55" s="1">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="6">
         <v>54</v>
       </c>
       <c r="B56" s="8">
-        <v>100</v>
-      </c>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="9"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56">
+        <v>0.05</v>
+      </c>
+      <c r="F56" s="2">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="H56">
+        <v>10</v>
+      </c>
+      <c r="I56" s="1">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="6">
         <v>55</v>
       </c>
       <c r="B57" s="8">
-        <v>100</v>
-      </c>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57">
+        <v>0.05</v>
+      </c>
+      <c r="F57" s="2">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="H57">
+        <v>10</v>
+      </c>
+      <c r="I57" s="1">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="6">
         <v>56</v>
       </c>
       <c r="B58" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="E58">
+        <v>0.05</v>
+      </c>
+      <c r="F58" s="2">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="H58">
+        <v>10</v>
+      </c>
+      <c r="I58" s="1">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="6">
         <v>57</v>
       </c>
       <c r="B59" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="E59">
+        <v>0.05</v>
+      </c>
+      <c r="F59" s="2">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="H59">
+        <v>10</v>
+      </c>
+      <c r="I59" s="1">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="E60">
+        <v>0.05</v>
+      </c>
+      <c r="F60" s="2">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="H60">
+        <v>10</v>
+      </c>
+      <c r="I60" s="1">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="E61">
+        <v>0.05</v>
+      </c>
+      <c r="F61" s="2">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="H61">
+        <v>10</v>
+      </c>
+      <c r="I61" s="1">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="E62">
+        <v>0.05</v>
+      </c>
+      <c r="F62" s="2">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="H62">
+        <v>10</v>
+      </c>
+      <c r="I62" s="1">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="E63">
+        <v>0.05</v>
+      </c>
+      <c r="F63" s="2">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="H63">
+        <v>10</v>
+      </c>
+      <c r="I63" s="1">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="E64">
+        <v>0.05</v>
+      </c>
+      <c r="F64" s="2">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="H64">
+        <v>10</v>
+      </c>
+      <c r="I64" s="1">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="E65">
+        <v>0.05</v>
+      </c>
+      <c r="F65" s="2">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="H65">
+        <v>10</v>
+      </c>
+      <c r="I65" s="1">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="E66">
+        <v>0.05</v>
+      </c>
+      <c r="F66" s="2">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="H66">
+        <v>10</v>
+      </c>
+      <c r="I66" s="1">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="E67">
+        <v>0.05</v>
+      </c>
+      <c r="F67" s="2">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="H67">
+        <v>10</v>
+      </c>
+      <c r="I67" s="1">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="E68">
+        <v>0.05</v>
+      </c>
+      <c r="F68" s="2">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="H68">
+        <v>10</v>
+      </c>
+      <c r="I68" s="1">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="E69">
+        <v>0.05</v>
+      </c>
+      <c r="F69" s="2">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="H69">
+        <v>10</v>
+      </c>
+      <c r="I69" s="1">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70" s="8">
-        <v>100</v>
+        <v>11</v>
+      </c>
+      <c r="E70">
+        <v>0.05</v>
+      </c>
+      <c r="F70" s="2">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="H70">
+        <v>10</v>
+      </c>
+      <c r="I70" s="1">
+        <v>1000000000</v>
       </c>
     </row>
   </sheetData>
@@ -4154,37 +4804,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D00B5E-E2E7-41B8-8388-8931D474EA96}">
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="5" max="5" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.53125" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7">
       <c r="A3" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>38</v>
       </c>
@@ -4207,8 +4857,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="11">
+    <row r="6" spans="1:7">
+      <c r="A6" s="10">
         <v>16</v>
       </c>
       <c r="B6">
@@ -4230,7 +4880,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>2</v>
       </c>
@@ -4253,7 +4903,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>3</v>
       </c>
@@ -4276,7 +4926,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>4</v>
       </c>
@@ -4299,7 +4949,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>5</v>
       </c>
@@ -4322,7 +4972,7 @@
         <v>1.0089999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>6</v>
       </c>
@@ -4345,7 +4995,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>7</v>
       </c>
@@ -4368,7 +5018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>8</v>
       </c>
@@ -4391,7 +5041,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>9</v>
       </c>
@@ -4414,7 +5064,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>10</v>
       </c>
@@ -4437,7 +5087,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>11</v>
       </c>
@@ -4460,7 +5110,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>12</v>
       </c>
@@ -4483,7 +5133,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>13</v>
       </c>
@@ -4506,7 +5156,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>14</v>
       </c>
@@ -4529,7 +5179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>15</v>
       </c>
@@ -4552,8 +5202,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="11">
+    <row r="21" spans="1:7">
+      <c r="A21" s="10">
         <v>1</v>
       </c>
       <c r="B21">
@@ -4575,7 +5225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>17</v>
       </c>
@@ -4598,7 +5248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>18</v>
       </c>
@@ -4621,7 +5271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>18</v>
       </c>
@@ -4644,7 +5294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>19</v>
       </c>
@@ -4667,7 +5317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>20</v>
       </c>
@@ -4690,7 +5340,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>21</v>
       </c>
@@ -4713,7 +5363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>22</v>
       </c>
@@ -4736,7 +5386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>23</v>
       </c>
@@ -4759,7 +5409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>24</v>
       </c>
@@ -4782,7 +5432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>24</v>
       </c>
@@ -4805,7 +5455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>25</v>
       </c>
@@ -4828,7 +5478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>26</v>
       </c>
@@ -4851,7 +5501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>27</v>
       </c>
@@ -4874,7 +5524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>27</v>
       </c>
@@ -4897,7 +5547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>28</v>
       </c>
@@ -4920,7 +5570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>29</v>
       </c>
@@ -4943,7 +5593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>29</v>
       </c>
@@ -4966,7 +5616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>30</v>
       </c>
@@ -4989,7 +5639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>30</v>
       </c>
@@ -5012,7 +5662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>31</v>
       </c>
@@ -5035,7 +5685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>31</v>
       </c>
@@ -5058,7 +5708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>32</v>
       </c>
@@ -5081,7 +5731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>33</v>
       </c>
@@ -5104,7 +5754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>34</v>
       </c>
@@ -5127,7 +5777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>34</v>
       </c>
@@ -5150,7 +5800,7 @@
         <v>0.94599999999999995</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>36</v>
       </c>
@@ -5173,7 +5823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>36</v>
       </c>
@@ -5196,7 +5846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>37</v>
       </c>
@@ -5219,7 +5869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>38</v>
       </c>
@@ -5242,7 +5892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>38</v>
       </c>
@@ -5265,7 +5915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>40</v>
       </c>
@@ -5288,7 +5938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>40</v>
       </c>
@@ -5311,7 +5961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>41</v>
       </c>
@@ -5334,7 +5984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>42</v>
       </c>
@@ -5357,7 +6007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>43</v>
       </c>
@@ -5380,7 +6030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>44</v>
       </c>
@@ -5403,7 +6053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>44</v>
       </c>
@@ -5426,7 +6076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>45</v>
       </c>
@@ -5449,7 +6099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>45</v>
       </c>
@@ -5472,7 +6122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>45</v>
       </c>
@@ -5495,7 +6145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>46</v>
       </c>
@@ -5518,7 +6168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>47</v>
       </c>
@@ -5541,7 +6191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>48</v>
       </c>
@@ -5564,7 +6214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>49</v>
       </c>
@@ -5587,7 +6237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>51</v>
       </c>
@@ -5610,7 +6260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>51</v>
       </c>
@@ -5633,7 +6283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>52</v>
       </c>
@@ -5656,7 +6306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>52</v>
       </c>
@@ -5679,7 +6329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>54</v>
       </c>
@@ -5702,7 +6352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>55</v>
       </c>
@@ -5725,7 +6375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>56</v>
       </c>
@@ -5748,7 +6398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>57</v>
       </c>
@@ -5771,7 +6421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>58</v>
       </c>
@@ -5794,7 +6444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:7">
       <c r="A75">
         <v>59</v>
       </c>
@@ -5817,7 +6467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:7">
       <c r="A76">
         <v>60</v>
       </c>
@@ -5840,7 +6490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:7">
       <c r="A77">
         <v>60</v>
       </c>
@@ -5863,7 +6513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:7">
       <c r="A78">
         <v>61</v>
       </c>
@@ -5886,7 +6536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>63</v>
       </c>
@@ -5909,7 +6559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:7">
       <c r="A80">
         <v>63</v>
       </c>
@@ -5932,7 +6582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:7">
       <c r="A81">
         <v>63</v>
       </c>
@@ -5955,7 +6605,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:7">
       <c r="A82">
         <v>65</v>
       </c>
@@ -5978,7 +6628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:7">
       <c r="A83">
         <v>65</v>
       </c>
@@ -6001,7 +6651,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:7">
       <c r="A84">
         <v>66</v>
       </c>
@@ -6024,7 +6674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:7">
       <c r="A85">
         <v>66</v>
       </c>
@@ -6047,7 +6697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:7">
       <c r="A86">
         <v>67</v>
       </c>
@@ -6070,7 +6720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:7">
       <c r="A87">
         <v>68</v>
       </c>
@@ -6093,7 +6743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:7">
       <c r="A88">
         <v>27</v>
       </c>
@@ -6131,18 +6781,18 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="7" max="7" width="14.86328125" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
@@ -6180,20 +6830,20 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="18.53125" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="15.796875" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -6202,7 +6852,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -6210,7 +6860,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -6218,7 +6868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -6241,17 +6891,17 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="30.1328125" customWidth="1"/>
+    <col min="1" max="1" width="30.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>41</v>
       </c>
@@ -6260,7 +6910,7 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -6268,7 +6918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -6276,7 +6926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -6284,7 +6934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -6292,7 +6942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -6300,7 +6950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -6308,7 +6958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -6316,7 +6966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -6324,7 +6974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -6332,7 +6982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>44</v>
       </c>

--- a/Nature_NETS_NYPS_68Bus_HybridSGIBR.xlsx
+++ b/Nature_NETS_NYPS_68Bus_HybridSGIBR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yg934\GitHub\Power-Communication-Isomorphism\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5CC8BB-5AC7-4329-BB5D-D4D23333F050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E989082-ABF1-48F9-841E-CF223A5C5226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1536" yWindow="12852" windowWidth="19416" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -649,7 +649,7 @@
   <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E8" sqref="E8:E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F3" s="13">
         <v>0</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F4" s="8">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F5" s="8">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F6" s="8">
         <v>0</v>
@@ -906,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F8" s="8">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F9" s="8">
         <v>0</v>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F10" s="8">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F11" s="8">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F12" s="8">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F13" s="8">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F14" s="8">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F15" s="8">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F16" s="8">
         <v>0</v>
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F17" s="8">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F18" s="13">
         <v>0</v>
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F19" s="8">
         <v>0</v>
@@ -1362,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F20" s="8">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F21" s="8">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F22" s="8">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F23" s="8">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F24" s="8">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F25" s="8">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F26" s="8">
         <v>0</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F27" s="8">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F28" s="8">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F29" s="8">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F30" s="8">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F31" s="8">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F32" s="8">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F33" s="8">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F34" s="8">
         <v>0</v>
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F35" s="8">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F36" s="8">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F37" s="8">
         <v>0</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F38" s="8">
         <v>0</v>
@@ -2084,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F39" s="8">
         <v>0</v>
@@ -2122,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F40" s="8">
         <v>0</v>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F41" s="8">
         <v>0</v>
@@ -2198,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F42" s="8">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F43" s="8">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F44" s="8">
         <v>0</v>
@@ -2312,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F45" s="8">
         <v>0</v>
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F46" s="8">
         <v>0</v>
@@ -2388,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F47" s="8">
         <v>0</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F48" s="8">
         <v>0</v>
@@ -2464,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F49" s="8">
         <v>0</v>
@@ -2502,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F50" s="8">
         <v>0</v>
@@ -2540,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F51" s="8">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F52" s="8">
         <v>0</v>
@@ -2616,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F53" s="8">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F54" s="8">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F55" s="8">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F56" s="8">
         <v>0</v>
@@ -2768,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F57" s="8">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F58" s="8">
         <v>0</v>
@@ -2844,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="F59" s="8">
         <v>0</v>
@@ -2881,8 +2881,8 @@
       <c r="D60">
         <v>0</v>
       </c>
-      <c r="E60">
-        <v>0</v>
+      <c r="E60" s="6">
+        <v>-0.01</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -2919,8 +2919,8 @@
       <c r="D61">
         <v>0</v>
       </c>
-      <c r="E61">
-        <v>0</v>
+      <c r="E61" s="6">
+        <v>-0.01</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -2957,8 +2957,8 @@
       <c r="D62">
         <v>0</v>
       </c>
-      <c r="E62">
-        <v>0</v>
+      <c r="E62" s="6">
+        <v>-0.01</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -2995,8 +2995,8 @@
       <c r="D63">
         <v>0</v>
       </c>
-      <c r="E63">
-        <v>0</v>
+      <c r="E63" s="6">
+        <v>-0.01</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -3033,8 +3033,8 @@
       <c r="D64">
         <v>0</v>
       </c>
-      <c r="E64">
-        <v>0</v>
+      <c r="E64" s="6">
+        <v>-0.01</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -3071,8 +3071,8 @@
       <c r="D65">
         <v>0</v>
       </c>
-      <c r="E65">
-        <v>0</v>
+      <c r="E65" s="6">
+        <v>-0.01</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -3109,8 +3109,8 @@
       <c r="D66">
         <v>0</v>
       </c>
-      <c r="E66">
-        <v>0</v>
+      <c r="E66" s="6">
+        <v>-0.01</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -3147,8 +3147,8 @@
       <c r="D67">
         <v>0</v>
       </c>
-      <c r="E67">
-        <v>0</v>
+      <c r="E67" s="6">
+        <v>-0.01</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -3185,8 +3185,8 @@
       <c r="D68">
         <v>0</v>
       </c>
-      <c r="E68">
-        <v>0</v>
+      <c r="E68" s="6">
+        <v>-0.01</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -3223,8 +3223,8 @@
       <c r="D69">
         <v>0</v>
       </c>
-      <c r="E69">
-        <v>0</v>
+      <c r="E69" s="6">
+        <v>-0.01</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -3261,8 +3261,8 @@
       <c r="D70">
         <v>0</v>
       </c>
-      <c r="E70">
-        <v>0</v>
+      <c r="E70" s="6">
+        <v>-0.01</v>
       </c>
       <c r="F70">
         <v>0</v>

--- a/Nature_NETS_NYPS_68Bus_HybridSGIBR.xlsx
+++ b/Nature_NETS_NYPS_68Bus_HybridSGIBR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yg934\GitHub\Power-Communication-Isomorphism\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-Communication-Isomorphism\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E989082-ABF1-48F9-841E-CF223A5C5226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8699DE4-35B6-4A46-80A7-12BE721B8389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="12852" windowWidth="19416" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -239,20 +239,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.00_ "/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -261,7 +261,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -269,7 +269,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -277,7 +277,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -285,13 +285,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -304,7 +304,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -343,27 +343,27 @@
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -648,23 +648,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E70"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="11.21875" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.19921875" customWidth="1"/>
+    <col min="9" max="9" width="10.796875" customWidth="1"/>
+    <col min="10" max="10" width="11.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
@@ -702,7 +702,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -740,7 +740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -778,7 +778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -816,7 +816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="6">
-        <v>-1</v>
+        <v>-0.01</v>
       </c>
       <c r="F7" s="8">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -930,7 +930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -968,7 +968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="11">
         <v>16</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="8">
         <v>23</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="8">
         <v>24</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="8">
         <v>25</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="8">
         <v>26</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="8">
         <v>27</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" s="8">
         <v>28</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" s="8">
         <v>29</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" s="8">
         <v>30</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" s="6">
         <v>31</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34" s="6">
         <v>32</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" s="6">
         <v>33</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36" s="6">
         <v>34</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37" s="6">
         <v>35</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A38" s="6">
         <v>36</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A39" s="6">
         <v>37</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A40" s="6">
         <v>38</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A41" s="6">
         <v>39</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A42" s="6">
         <v>40</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A43" s="6">
         <v>41</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A44" s="6">
         <v>42</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A45" s="6">
         <v>43</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A46" s="6">
         <v>44</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A47" s="6">
         <v>45</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A48" s="6">
         <v>46</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A49" s="6">
         <v>47</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A50" s="6">
         <v>48</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A51" s="6">
         <v>49</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A52" s="6">
         <v>50</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A53" s="6">
         <v>51</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A54" s="6">
         <v>52</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A55" s="6">
         <v>53</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A56" s="6">
         <v>54</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A57" s="6">
         <v>55</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A58" s="6">
         <v>56</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A59" s="6">
         <v>57</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>58</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>59</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>60</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>61</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>62</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>63</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>64</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>65</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>66</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>67</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>68</v>
       </c>
@@ -3297,34 +3297,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" customWidth="1"/>
-    <col min="2" max="2" width="29.5546875" customWidth="1"/>
+    <col min="1" max="1" width="12.796875" customWidth="1"/>
+    <col min="2" max="2" width="29.53125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" customWidth="1"/>
-    <col min="9" max="9" width="18.77734375" customWidth="1"/>
-    <col min="10" max="10" width="18.5546875" customWidth="1"/>
-    <col min="11" max="11" width="17.109375" customWidth="1"/>
-    <col min="12" max="12" width="17.88671875" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" customWidth="1"/>
-    <col min="14" max="14" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" customWidth="1"/>
+    <col min="5" max="5" width="12.46484375" customWidth="1"/>
+    <col min="6" max="6" width="13.53125" customWidth="1"/>
+    <col min="7" max="7" width="13.796875" customWidth="1"/>
+    <col min="8" max="8" width="15.1328125" customWidth="1"/>
+    <col min="9" max="9" width="18.796875" customWidth="1"/>
+    <col min="10" max="10" width="18.53125" customWidth="1"/>
+    <col min="11" max="11" width="17.1328125" customWidth="1"/>
+    <col min="12" max="12" width="17.86328125" customWidth="1"/>
+    <col min="13" max="13" width="14.46484375" customWidth="1"/>
+    <col min="14" max="14" width="13.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -3343,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="12">
-        <v>10</v>
+        <v>1000000000</v>
       </c>
       <c r="D3" s="12">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="E3" s="12">
         <v>1.0000000000000001E-5</v>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -3380,7 +3380,7 @@
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="11">
         <v>16</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="8">
         <v>23</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="8">
         <v>24</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="8">
         <v>25</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="8">
         <v>26</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="8">
         <v>27</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="8">
         <v>28</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="8">
         <v>29</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="8">
         <v>30</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="6">
         <v>31</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="6">
         <v>32</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="6">
         <v>33</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="6">
         <v>34</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="6">
         <v>35</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="6">
         <v>36</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="6">
         <v>37</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" s="6">
         <v>38</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="6">
         <v>39</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" s="6">
         <v>40</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" s="6">
         <v>41</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="6">
         <v>42</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" s="6">
         <v>43</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" s="6">
         <v>44</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" s="6">
         <v>45</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" s="6">
         <v>46</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" s="6">
         <v>47</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" s="6">
         <v>48</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" s="6">
         <v>49</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" s="6">
         <v>50</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" s="6">
         <v>51</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54" s="6">
         <v>52</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" s="6">
         <v>53</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" s="6">
         <v>54</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" s="6">
         <v>55</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58" s="6">
         <v>56</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59" s="6">
         <v>57</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>58</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>59</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>60</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>61</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>62</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>63</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>64</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>65</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>66</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>67</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>68</v>
       </c>
@@ -4808,33 +4808,33 @@
       <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>38</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="10">
         <v>16</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>2</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>3</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>4</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>5</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>1.0089999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>6</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>7</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>8</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>9</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>10</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>11</v>
       </c>
@@ -5110,7 +5110,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>12</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>13</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>14</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>15</v>
       </c>
@@ -5202,7 +5202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="10">
         <v>1</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>17</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>18</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>18</v>
       </c>
@@ -5294,7 +5294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>19</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>20</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>21</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>22</v>
       </c>
@@ -5386,7 +5386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>23</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>24</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>24</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>25</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>26</v>
       </c>
@@ -5501,7 +5501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>27</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>27</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>28</v>
       </c>
@@ -5570,7 +5570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>29</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>29</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>30</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>30</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>31</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>31</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>32</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>33</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>34</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>34</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>0.94599999999999995</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>36</v>
       </c>
@@ -5823,7 +5823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>36</v>
       </c>
@@ -5846,7 +5846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>37</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>38</v>
       </c>
@@ -5892,7 +5892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>38</v>
       </c>
@@ -5915,7 +5915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>40</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>40</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>41</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>42</v>
       </c>
@@ -6007,7 +6007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>43</v>
       </c>
@@ -6030,7 +6030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>44</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>44</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>45</v>
       </c>
@@ -6099,7 +6099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>45</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>45</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>46</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>47</v>
       </c>
@@ -6191,7 +6191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>48</v>
       </c>
@@ -6214,7 +6214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>49</v>
       </c>
@@ -6237,7 +6237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>51</v>
       </c>
@@ -6260,7 +6260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>51</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>52</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>52</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>54</v>
       </c>
@@ -6352,7 +6352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>55</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>56</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>57</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>58</v>
       </c>
@@ -6444,7 +6444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>59</v>
       </c>
@@ -6467,7 +6467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>60</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>60</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>61</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>63</v>
       </c>
@@ -6559,7 +6559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>63</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>63</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>65</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>65</v>
       </c>
@@ -6651,7 +6651,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>66</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>66</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>67</v>
       </c>
@@ -6720,7 +6720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>68</v>
       </c>
@@ -6743,7 +6743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>27</v>
       </c>
@@ -6781,18 +6781,18 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="7" max="7" width="14.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
@@ -6830,20 +6830,20 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.53125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="15.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -6852,7 +6852,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -6860,7 +6860,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -6888,20 +6888,20 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="30.109375" customWidth="1"/>
+    <col min="1" max="1" width="30.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>41</v>
       </c>
@@ -6910,7 +6910,7 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -6918,7 +6918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -6942,7 +6942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -6958,7 +6958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -6966,7 +6966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -6982,12 +6982,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>44</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Nature_NETS_NYPS_68Bus_HybridSGIBR.xlsx
+++ b/Nature_NETS_NYPS_68Bus_HybridSGIBR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-Communication-Isomorphism\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8699DE4-35B6-4A46-80A7-12BE721B8389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D5B0EB-22C5-46A4-ACE8-AA4D0A262C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -649,7 +649,7 @@
   <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -728,10 +728,10 @@
         <v>0</v>
       </c>
       <c r="I3" s="6">
-        <v>-999</v>
+        <v>-9999</v>
       </c>
       <c r="J3" s="6">
-        <v>999</v>
+        <v>9999</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -766,10 +766,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="6">
-        <v>-999</v>
+        <v>-9999</v>
       </c>
       <c r="J4" s="6">
-        <v>999</v>
+        <v>9999</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -804,10 +804,10 @@
         <v>0</v>
       </c>
       <c r="I5" s="6">
-        <v>-999</v>
+        <v>-9999</v>
       </c>
       <c r="J5" s="6">
-        <v>999</v>
+        <v>9999</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="I6" s="6">
-        <v>-999</v>
+        <v>-9999</v>
       </c>
       <c r="J6" s="6">
-        <v>999</v>
+        <v>9999</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="6">
-        <v>-0.01</v>
+        <v>-15</v>
       </c>
       <c r="F7" s="8">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="I7" s="6">
-        <v>-999</v>
+        <v>-9999</v>
       </c>
       <c r="J7" s="6">
-        <v>999</v>
+        <v>9999</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="I8" s="6">
-        <v>-999</v>
+        <v>-9999</v>
       </c>
       <c r="J8" s="6">
-        <v>999</v>
+        <v>9999</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="I9" s="6">
-        <v>-999</v>
+        <v>-9999</v>
       </c>
       <c r="J9" s="6">
-        <v>999</v>
+        <v>9999</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -994,10 +994,10 @@
         <v>0</v>
       </c>
       <c r="I10" s="6">
-        <v>-999</v>
+        <v>-9999</v>
       </c>
       <c r="J10" s="6">
-        <v>999</v>
+        <v>9999</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1032,10 +1032,10 @@
         <v>0</v>
       </c>
       <c r="I11" s="6">
-        <v>-999</v>
+        <v>-9999</v>
       </c>
       <c r="J11" s="6">
-        <v>999</v>
+        <v>9999</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1070,10 +1070,10 @@
         <v>0</v>
       </c>
       <c r="I12" s="6">
-        <v>-999</v>
+        <v>-9999</v>
       </c>
       <c r="J12" s="6">
-        <v>999</v>
+        <v>9999</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="I13" s="6">
-        <v>-999</v>
+        <v>-9999</v>
       </c>
       <c r="J13" s="6">
-        <v>999</v>
+        <v>9999</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1146,10 +1146,10 @@
         <v>0</v>
       </c>
       <c r="I14" s="6">
-        <v>-999</v>
+        <v>-9999</v>
       </c>
       <c r="J14" s="6">
-        <v>999</v>
+        <v>9999</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="I15" s="6">
-        <v>-999</v>
+        <v>-9999</v>
       </c>
       <c r="J15" s="6">
-        <v>999</v>
+        <v>9999</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1222,10 +1222,10 @@
         <v>0</v>
       </c>
       <c r="I16" s="6">
-        <v>-999</v>
+        <v>-9999</v>
       </c>
       <c r="J16" s="6">
-        <v>999</v>
+        <v>9999</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1260,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="I17" s="6">
-        <v>-999</v>
+        <v>-9999</v>
       </c>
       <c r="J17" s="6">
-        <v>999</v>
+        <v>9999</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1298,10 +1298,10 @@
         <v>0</v>
       </c>
       <c r="I18" s="6">
-        <v>-999</v>
+        <v>-9999</v>
       </c>
       <c r="J18" s="6">
-        <v>999</v>
+        <v>9999</v>
       </c>
       <c r="K18" s="6">
         <v>1</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="I19" s="6">
-        <v>0</v>
+        <v>-9999</v>
       </c>
       <c r="J19" s="6">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1374,10 +1374,10 @@
         <v>0</v>
       </c>
       <c r="I20" s="6">
-        <v>0</v>
+        <v>-9999</v>
       </c>
       <c r="J20" s="6">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1412,10 +1412,10 @@
         <v>0</v>
       </c>
       <c r="I21" s="6">
-        <v>0</v>
+        <v>-9999</v>
       </c>
       <c r="J21" s="6">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1450,10 +1450,10 @@
         <v>0</v>
       </c>
       <c r="I22" s="6">
-        <v>0</v>
+        <v>-9999</v>
       </c>
       <c r="J22" s="6">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="I23" s="6">
-        <v>0</v>
+        <v>-9999</v>
       </c>
       <c r="J23" s="6">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="I24" s="6">
-        <v>0</v>
+        <v>-9999</v>
       </c>
       <c r="J24" s="6">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1564,10 +1564,10 @@
         <v>0</v>
       </c>
       <c r="I25" s="6">
-        <v>0</v>
+        <v>-9999</v>
       </c>
       <c r="J25" s="6">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -1602,10 +1602,10 @@
         <v>0</v>
       </c>
       <c r="I26" s="6">
-        <v>0</v>
+        <v>-9999</v>
       </c>
       <c r="J26" s="6">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -1640,10 +1640,10 @@
         <v>0</v>
       </c>
       <c r="I27" s="6">
-        <v>0</v>
+        <v>-9999</v>
       </c>
       <c r="J27" s="6">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -1678,10 +1678,10 @@
         <v>0</v>
       </c>
       <c r="I28" s="6">
-        <v>0</v>
+        <v>-9999</v>
       </c>
       <c r="J28" s="6">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -1716,10 +1716,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="6">
-        <v>0</v>
+        <v>-9999</v>
       </c>
       <c r="J29" s="6">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -1754,10 +1754,10 @@
         <v>0</v>
       </c>
       <c r="I30" s="6">
-        <v>0</v>
+        <v>-9999</v>
       </c>
       <c r="J30" s="6">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -1792,10 +1792,10 @@
         <v>0</v>
       </c>
       <c r="I31" s="6">
-        <v>0</v>
+        <v>-9999</v>
       </c>
       <c r="J31" s="6">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="I32" s="6">
-        <v>0</v>
+        <v>-9999</v>
       </c>
       <c r="J32" s="6">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -1868,10 +1868,10 @@
         <v>0</v>
       </c>
       <c r="I33" s="6">
-        <v>0</v>
+        <v>-9999</v>
       </c>
       <c r="J33" s="6">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="I34" s="6">
-        <v>0</v>
+        <v>-9999</v>
       </c>
       <c r="J34" s="6">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -1944,10 +1944,10 @@
         <v>0</v>
       </c>
       <c r="I35" s="6">
-        <v>0</v>
+        <v>-9999</v>
       </c>
       <c r="J35" s="6">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -1982,10 +1982,10 @@
         <v>0</v>
       </c>
       <c r="I36" s="6">
-        <v>0</v>
+        <v>-9999</v>
       </c>
       <c r="J36" s="6">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -2020,10 +2020,10 @@
         <v>0</v>
       </c>
       <c r="I37" s="6">
-        <v>0</v>
+        <v>-9999</v>
       </c>
       <c r="J37" s="6">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -2058,10 +2058,10 @@
         <v>0</v>
       </c>
       <c r="I38" s="6">
-        <v>0</v>
+        <v>-9999</v>
       </c>
       <c r="J38" s="6">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -2096,10 +2096,10 @@
         <v>0</v>
       </c>
       <c r="I39" s="6">
-        <v>0</v>
+        <v>-9999</v>
       </c>
       <c r="J39" s="6">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -2134,10 +2134,10 @@
         <v>0</v>
       </c>
       <c r="I40" s="6">
-        <v>0</v>
+        <v>-9999</v>
       </c>
       <c r="J40" s="6">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -2172,10 +2172,10 @@
         <v>0</v>
       </c>
       <c r="I41" s="6">
-        <v>0</v>
+        <v>-9999</v>
       </c>
       <c r="J41" s="6">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -2210,10 +2210,10 @@
         <v>0</v>
       </c>
       <c r="I42" s="6">
-        <v>0</v>
+        <v>-9999</v>
       </c>
       <c r="J42" s="6">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -2248,10 +2248,10 @@
         <v>0</v>
       </c>
       <c r="I43" s="6">
-        <v>0</v>
+        <v>-9999</v>
       </c>
       <c r="J43" s="6">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K43">
         <v>1</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="I44" s="6">
-        <v>0</v>
+        <v>-9999</v>
       </c>
       <c r="J44" s="6">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K44">
         <v>1</v>
@@ -2324,10 +2324,10 @@
         <v>0</v>
       </c>
       <c r="I45" s="6">
-        <v>0</v>
+        <v>-9999</v>
       </c>
       <c r="J45" s="6">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -2362,10 +2362,10 @@
         <v>0</v>
       </c>
       <c r="I46" s="6">
-        <v>0</v>
+        <v>-9999</v>
       </c>
       <c r="J46" s="6">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K46">
         <v>1</v>
@@ -2400,10 +2400,10 @@
         <v>0</v>
       </c>
       <c r="I47" s="6">
-        <v>0</v>
+        <v>-9999</v>
       </c>
       <c r="J47" s="6">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K47">
         <v>1</v>
@@ -2438,10 +2438,10 @@
         <v>0</v>
       </c>
       <c r="I48" s="6">
-        <v>0</v>
+        <v>-9999</v>
       </c>
       <c r="J48" s="6">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K48">
         <v>1</v>
@@ -2476,10 +2476,10 @@
         <v>0</v>
       </c>
       <c r="I49" s="6">
-        <v>0</v>
+        <v>-9999</v>
       </c>
       <c r="J49" s="6">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K49">
         <v>1</v>
@@ -2514,10 +2514,10 @@
         <v>0</v>
       </c>
       <c r="I50" s="6">
-        <v>0</v>
+        <v>-9999</v>
       </c>
       <c r="J50" s="6">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K50">
         <v>1</v>
@@ -2552,10 +2552,10 @@
         <v>0</v>
       </c>
       <c r="I51" s="6">
-        <v>0</v>
+        <v>-9999</v>
       </c>
       <c r="J51" s="6">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K51">
         <v>1</v>
@@ -2590,10 +2590,10 @@
         <v>0</v>
       </c>
       <c r="I52" s="6">
-        <v>0</v>
+        <v>-9999</v>
       </c>
       <c r="J52" s="6">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K52">
         <v>1</v>
@@ -2628,10 +2628,10 @@
         <v>0</v>
       </c>
       <c r="I53" s="6">
-        <v>0</v>
+        <v>-9999</v>
       </c>
       <c r="J53" s="6">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K53">
         <v>1</v>
@@ -2666,10 +2666,10 @@
         <v>0</v>
       </c>
       <c r="I54" s="6">
-        <v>0</v>
+        <v>-9999</v>
       </c>
       <c r="J54" s="6">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K54">
         <v>1</v>
@@ -2704,10 +2704,10 @@
         <v>0</v>
       </c>
       <c r="I55" s="6">
-        <v>0</v>
+        <v>-9999</v>
       </c>
       <c r="J55" s="6">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K55">
         <v>1</v>
@@ -2742,10 +2742,10 @@
         <v>0</v>
       </c>
       <c r="I56" s="6">
-        <v>0</v>
+        <v>-9999</v>
       </c>
       <c r="J56" s="6">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K56">
         <v>1</v>
@@ -2780,10 +2780,10 @@
         <v>0</v>
       </c>
       <c r="I57" s="6">
-        <v>0</v>
+        <v>-9999</v>
       </c>
       <c r="J57" s="6">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K57">
         <v>1</v>
@@ -2818,10 +2818,10 @@
         <v>0</v>
       </c>
       <c r="I58" s="6">
-        <v>0</v>
+        <v>-9999</v>
       </c>
       <c r="J58" s="6">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K58">
         <v>1</v>
@@ -2856,10 +2856,10 @@
         <v>0</v>
       </c>
       <c r="I59" s="6">
-        <v>0</v>
+        <v>-9999</v>
       </c>
       <c r="J59" s="6">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K59">
         <v>1</v>
@@ -2894,10 +2894,10 @@
         <v>0</v>
       </c>
       <c r="I60" s="6">
-        <v>0</v>
+        <v>-9999</v>
       </c>
       <c r="J60" s="6">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K60">
         <v>1</v>
@@ -2932,10 +2932,10 @@
         <v>0</v>
       </c>
       <c r="I61" s="6">
-        <v>0</v>
+        <v>-9999</v>
       </c>
       <c r="J61" s="6">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K61">
         <v>1</v>
@@ -2970,10 +2970,10 @@
         <v>0</v>
       </c>
       <c r="I62" s="6">
-        <v>0</v>
+        <v>-9999</v>
       </c>
       <c r="J62" s="6">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K62">
         <v>1</v>
@@ -3008,10 +3008,10 @@
         <v>0</v>
       </c>
       <c r="I63" s="6">
-        <v>0</v>
+        <v>-9999</v>
       </c>
       <c r="J63" s="6">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K63">
         <v>1</v>
@@ -3046,10 +3046,10 @@
         <v>0</v>
       </c>
       <c r="I64" s="6">
-        <v>0</v>
+        <v>-9999</v>
       </c>
       <c r="J64" s="6">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K64">
         <v>1</v>
@@ -3084,10 +3084,10 @@
         <v>0</v>
       </c>
       <c r="I65" s="6">
-        <v>0</v>
+        <v>-9999</v>
       </c>
       <c r="J65" s="6">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K65">
         <v>1</v>
@@ -3122,10 +3122,10 @@
         <v>0</v>
       </c>
       <c r="I66" s="6">
-        <v>0</v>
+        <v>-9999</v>
       </c>
       <c r="J66" s="6">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K66">
         <v>1</v>
@@ -3160,10 +3160,10 @@
         <v>0</v>
       </c>
       <c r="I67" s="6">
-        <v>0</v>
+        <v>-9999</v>
       </c>
       <c r="J67" s="6">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K67">
         <v>1</v>
@@ -3198,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="I68" s="6">
-        <v>0</v>
+        <v>-9999</v>
       </c>
       <c r="J68" s="6">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K68">
         <v>1</v>
@@ -3236,10 +3236,10 @@
         <v>0</v>
       </c>
       <c r="I69" s="6">
-        <v>0</v>
+        <v>-9999</v>
       </c>
       <c r="J69" s="6">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K69">
         <v>1</v>
@@ -3274,10 +3274,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="6">
-        <v>0</v>
+        <v>-9999</v>
       </c>
       <c r="J70" s="6">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="K70">
         <v>1</v>
@@ -3298,7 +3298,7 @@
   <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3376,7 +3376,7 @@
         <v>10</v>
       </c>
       <c r="I4" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
       <c r="J4" s="2"/>
     </row>
@@ -3399,7 +3399,7 @@
         <v>10</v>
       </c>
       <c r="I5" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
@@ -3421,7 +3421,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
@@ -3443,7 +3443,7 @@
         <v>10</v>
       </c>
       <c r="I7" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
@@ -3465,7 +3465,7 @@
         <v>10</v>
       </c>
       <c r="I8" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
@@ -3487,7 +3487,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
@@ -3509,7 +3509,7 @@
         <v>10</v>
       </c>
       <c r="I10" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
@@ -3531,7 +3531,7 @@
         <v>10</v>
       </c>
       <c r="I11" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
@@ -3553,7 +3553,7 @@
         <v>10</v>
       </c>
       <c r="I12" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
@@ -3575,7 +3575,7 @@
         <v>10</v>
       </c>
       <c r="I13" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
@@ -3597,7 +3597,7 @@
         <v>10</v>
       </c>
       <c r="I14" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
@@ -3619,7 +3619,7 @@
         <v>10</v>
       </c>
       <c r="I15" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
@@ -3641,7 +3641,7 @@
         <v>10</v>
       </c>
       <c r="I16" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
@@ -3663,7 +3663,7 @@
         <v>10</v>
       </c>
       <c r="I17" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
@@ -3685,7 +3685,7 @@
         <v>10</v>
       </c>
       <c r="I18" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
@@ -3707,7 +3707,7 @@
         <v>10</v>
       </c>
       <c r="I19" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
@@ -3729,7 +3729,7 @@
         <v>10</v>
       </c>
       <c r="I20" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
@@ -3751,7 +3751,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
@@ -3773,7 +3773,7 @@
         <v>10</v>
       </c>
       <c r="I22" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
@@ -3795,7 +3795,7 @@
         <v>10</v>
       </c>
       <c r="I23" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
@@ -3816,7 +3816,7 @@
         <v>10</v>
       </c>
       <c r="I24" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
@@ -3837,7 +3837,7 @@
         <v>10</v>
       </c>
       <c r="I25" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
@@ -3858,7 +3858,7 @@
         <v>10</v>
       </c>
       <c r="I26" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
@@ -3879,7 +3879,7 @@
         <v>10</v>
       </c>
       <c r="I27" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
@@ -3900,7 +3900,7 @@
         <v>10</v>
       </c>
       <c r="I28" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
@@ -3921,7 +3921,7 @@
         <v>10</v>
       </c>
       <c r="I29" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
@@ -3942,7 +3942,7 @@
         <v>10</v>
       </c>
       <c r="I30" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
@@ -3963,7 +3963,7 @@
         <v>10</v>
       </c>
       <c r="I31" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
@@ -3984,7 +3984,7 @@
         <v>10</v>
       </c>
       <c r="I32" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.4">
@@ -4005,7 +4005,7 @@
         <v>10</v>
       </c>
       <c r="I33" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.4">
@@ -4026,7 +4026,7 @@
         <v>10</v>
       </c>
       <c r="I34" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.4">
@@ -4047,7 +4047,7 @@
         <v>10</v>
       </c>
       <c r="I35" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.4">
@@ -4068,7 +4068,7 @@
         <v>10</v>
       </c>
       <c r="I36" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.4">
@@ -4089,7 +4089,7 @@
         <v>10</v>
       </c>
       <c r="I37" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.4">
@@ -4110,7 +4110,7 @@
         <v>10</v>
       </c>
       <c r="I38" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.4">
@@ -4131,7 +4131,7 @@
         <v>10</v>
       </c>
       <c r="I39" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.4">
@@ -4152,7 +4152,7 @@
         <v>10</v>
       </c>
       <c r="I40" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.4">
@@ -4173,7 +4173,7 @@
         <v>10</v>
       </c>
       <c r="I41" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.4">
@@ -4194,7 +4194,7 @@
         <v>10</v>
       </c>
       <c r="I42" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.4">
@@ -4215,7 +4215,7 @@
         <v>10</v>
       </c>
       <c r="I43" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.4">
@@ -4236,7 +4236,7 @@
         <v>10</v>
       </c>
       <c r="I44" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.4">
@@ -4257,7 +4257,7 @@
         <v>10</v>
       </c>
       <c r="I45" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.4">
@@ -4278,7 +4278,7 @@
         <v>10</v>
       </c>
       <c r="I46" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.4">
@@ -4299,7 +4299,7 @@
         <v>10</v>
       </c>
       <c r="I47" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.4">
@@ -4320,7 +4320,7 @@
         <v>10</v>
       </c>
       <c r="I48" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.4">
@@ -4341,7 +4341,7 @@
         <v>10</v>
       </c>
       <c r="I49" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.4">
@@ -4362,7 +4362,7 @@
         <v>10</v>
       </c>
       <c r="I50" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.4">
@@ -4383,7 +4383,7 @@
         <v>10</v>
       </c>
       <c r="I51" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.4">
@@ -4404,7 +4404,7 @@
         <v>10</v>
       </c>
       <c r="I52" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.4">
@@ -4425,7 +4425,7 @@
         <v>10</v>
       </c>
       <c r="I53" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.4">
@@ -4448,7 +4448,7 @@
         <v>10</v>
       </c>
       <c r="I54" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.4">
@@ -4471,7 +4471,7 @@
         <v>10</v>
       </c>
       <c r="I55" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.4">
@@ -4494,7 +4494,7 @@
         <v>10</v>
       </c>
       <c r="I56" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.4">
@@ -4517,7 +4517,7 @@
         <v>10</v>
       </c>
       <c r="I57" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.4">
@@ -4538,7 +4538,7 @@
         <v>10</v>
       </c>
       <c r="I58" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.4">
@@ -4559,7 +4559,7 @@
         <v>10</v>
       </c>
       <c r="I59" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.4">
@@ -4580,7 +4580,7 @@
         <v>10</v>
       </c>
       <c r="I60" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.4">
@@ -4601,7 +4601,7 @@
         <v>10</v>
       </c>
       <c r="I61" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.4">
@@ -4622,7 +4622,7 @@
         <v>10</v>
       </c>
       <c r="I62" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.4">
@@ -4643,7 +4643,7 @@
         <v>10</v>
       </c>
       <c r="I63" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.4">
@@ -4664,7 +4664,7 @@
         <v>10</v>
       </c>
       <c r="I64" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.4">
@@ -4685,7 +4685,7 @@
         <v>10</v>
       </c>
       <c r="I65" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.4">
@@ -4706,7 +4706,7 @@
         <v>10</v>
       </c>
       <c r="I66" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.4">
@@ -4727,7 +4727,7 @@
         <v>10</v>
       </c>
       <c r="I67" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.4">
@@ -4748,7 +4748,7 @@
         <v>10</v>
       </c>
       <c r="I68" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.4">
@@ -4769,7 +4769,7 @@
         <v>10</v>
       </c>
       <c r="I69" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.4">
@@ -4790,7 +4790,7 @@
         <v>10</v>
       </c>
       <c r="I70" s="1">
-        <v>1000000000</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -4804,8 +4804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D00B5E-E2E7-41B8-8388-8931D474EA96}">
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="G81" sqref="G81"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -4877,7 +4877,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.0249999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -4900,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.07</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -4923,7 +4923,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.07</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.07</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
@@ -4969,7 +4969,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.0089999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -4992,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.0249999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
@@ -5038,7 +5038,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.0249999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -5061,7 +5061,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.0249999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -5084,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.04</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
@@ -5107,7 +5107,7 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.04</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
@@ -5130,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.04</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
@@ -5153,7 +5153,7 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.04</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
@@ -5239,7 +5239,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
       <c r="E22">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -5262,7 +5262,7 @@
         <v>0.11409999999999999</v>
       </c>
       <c r="E23">
-        <v>1.1599999999999999</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -5285,7 +5285,7 @@
         <v>2.8799999999999999E-2</v>
       </c>
       <c r="E24">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -5308,7 +5308,7 @@
         <v>1.95E-2</v>
       </c>
       <c r="E25">
-        <v>0.30399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -5337,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>1.06</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
@@ -5354,7 +5354,7 @@
         <v>1.35E-2</v>
       </c>
       <c r="E27">
-        <v>0.25480000000000003</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -5377,7 +5377,7 @@
         <v>1.4E-2</v>
       </c>
       <c r="E28">
-        <v>0.25650000000000001</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -5400,7 +5400,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
       <c r="E29">
-        <v>0.18459999999999999</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -5423,7 +5423,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="E30">
-        <v>0.36099999999999999</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>5.8999999999999999E-3</v>
       </c>
       <c r="E31">
-        <v>6.8000000000000005E-2</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -5469,7 +5469,7 @@
         <v>8.6E-3</v>
       </c>
       <c r="E32">
-        <v>0.14599999999999999</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -5492,7 +5492,7 @@
         <v>3.2300000000000002E-2</v>
       </c>
       <c r="E33">
-        <v>0.53100000000000003</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -5515,7 +5515,7 @@
         <v>1.7299999999999999E-2</v>
       </c>
       <c r="E34">
-        <v>0.3216</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -5538,7 +5538,7 @@
         <v>1.47E-2</v>
       </c>
       <c r="E35">
-        <v>0.23960000000000001</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -5561,7 +5561,7 @@
         <v>4.7399999999999998E-2</v>
       </c>
       <c r="E36">
-        <v>0.7802</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -5584,7 +5584,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="E37">
-        <v>1.0289999999999999</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -5607,7 +5607,7 @@
         <v>1.5100000000000001E-2</v>
       </c>
       <c r="E38">
-        <v>0.249</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -5630,7 +5630,7 @@
         <v>7.4000000000000003E-3</v>
       </c>
       <c r="E39">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -5653,7 +5653,7 @@
         <v>9.1500000000000001E-3</v>
       </c>
       <c r="E40">
-        <v>0.57999999999999996</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -5676,7 +5676,7 @@
         <v>1.8700000000000001E-2</v>
       </c>
       <c r="E41">
-        <v>0.33300000000000002</v>
+        <v>0</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -5699,7 +5699,7 @@
         <v>1.6299999999999999E-2</v>
       </c>
       <c r="E42">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -5722,7 +5722,7 @@
         <v>2.8799999999999999E-2</v>
       </c>
       <c r="E43">
-        <v>0.48799999999999999</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -5745,7 +5745,7 @@
         <v>9.9000000000000008E-3</v>
       </c>
       <c r="E44">
-        <v>0.16800000000000001</v>
+        <v>0</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -5768,7 +5768,7 @@
         <v>1.5699999999999999E-2</v>
       </c>
       <c r="E45">
-        <v>0.20200000000000001</v>
+        <v>0</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -5797,7 +5797,7 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>0.94599999999999995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
@@ -5814,7 +5814,7 @@
         <v>1.11E-2</v>
       </c>
       <c r="E47">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -5837,7 +5837,7 @@
         <v>9.7999999999999997E-3</v>
       </c>
       <c r="E48">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -5860,7 +5860,7 @@
         <v>8.8999999999999999E-3</v>
       </c>
       <c r="E49">
-        <v>0.13420000000000001</v>
+        <v>0</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -5883,7 +5883,7 @@
         <v>1.47E-2</v>
       </c>
       <c r="E50">
-        <v>0.247</v>
+        <v>0</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -5906,7 +5906,7 @@
         <v>4.4400000000000002E-2</v>
       </c>
       <c r="E51">
-        <v>0.69299999999999995</v>
+        <v>0</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -5929,7 +5929,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="E52">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -5952,7 +5952,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="E53">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>0.06</v>
       </c>
       <c r="E54">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -5998,7 +5998,7 @@
         <v>0.06</v>
       </c>
       <c r="E55">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -6090,7 +6090,7 @@
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="E59">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -6159,7 +6159,7 @@
         <v>2.8400000000000002E-2</v>
       </c>
       <c r="E62">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -6182,7 +6182,7 @@
         <v>1.8800000000000001E-2</v>
       </c>
       <c r="E63">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -6205,7 +6205,7 @@
         <v>1.34E-2</v>
       </c>
       <c r="E64">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -6228,7 +6228,7 @@
         <v>2.7400000000000001E-2</v>
       </c>
       <c r="E65">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -6251,7 +6251,7 @@
         <v>1.0500000000000001E-2</v>
       </c>
       <c r="E66">
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -6274,7 +6274,7 @@
         <v>2.2100000000000002E-2</v>
       </c>
       <c r="E67">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -6297,7 +6297,7 @@
         <v>8.2000000000000007E-3</v>
       </c>
       <c r="E68">
-        <v>0.13189999999999999</v>
+        <v>0</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -6320,7 +6320,7 @@
         <v>1.3299999999999999E-2</v>
       </c>
       <c r="E69">
-        <v>0.21379999999999999</v>
+        <v>0</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -6343,7 +6343,7 @@
         <v>4.1099999999999998E-2</v>
       </c>
       <c r="E70">
-        <v>0.69869999999999999</v>
+        <v>0</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -6366,7 +6366,7 @@
         <v>1.5100000000000001E-2</v>
       </c>
       <c r="E71">
-        <v>0.25719999999999998</v>
+        <v>0</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -6389,7 +6389,7 @@
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="E72">
-        <v>0.22140000000000001</v>
+        <v>0</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -6412,7 +6412,7 @@
         <v>1.2800000000000001E-2</v>
       </c>
       <c r="E73">
-        <v>0.13420000000000001</v>
+        <v>0</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -6435,7 +6435,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
       <c r="E74">
-        <v>4.3400000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -6458,7 +6458,7 @@
         <v>9.1999999999999998E-3</v>
       </c>
       <c r="E75">
-        <v>0.113</v>
+        <v>0</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -6481,7 +6481,7 @@
         <v>1.12E-2</v>
       </c>
       <c r="E76">
-        <v>0.14760000000000001</v>
+        <v>0</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -6504,7 +6504,7 @@
         <v>4.5999999999999999E-3</v>
       </c>
       <c r="E77">
-        <v>7.8E-2</v>
+        <v>0</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -6527,7 +6527,7 @@
         <v>3.6299999999999999E-2</v>
       </c>
       <c r="E78">
-        <v>0.38040000000000002</v>
+        <v>0</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -6550,7 +6550,7 @@
         <v>8.2000000000000007E-3</v>
       </c>
       <c r="E79">
-        <v>0.1389</v>
+        <v>0</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -6573,7 +6573,7 @@
         <v>4.3E-3</v>
       </c>
       <c r="E80">
-        <v>7.2900000000000006E-2</v>
+        <v>0</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -6602,7 +6602,7 @@
         <v>0</v>
       </c>
       <c r="G81">
-        <v>1.06</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.4">
@@ -6619,7 +6619,7 @@
         <v>4.3E-3</v>
       </c>
       <c r="E82">
-        <v>7.2900000000000006E-2</v>
+        <v>0</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -6648,7 +6648,7 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <v>1.06</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.4">
@@ -6665,7 +6665,7 @@
         <v>1.29E-2</v>
       </c>
       <c r="E84">
-        <v>0.13819999999999999</v>
+        <v>0</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -6688,7 +6688,7 @@
         <v>1.01E-2</v>
       </c>
       <c r="E85">
-        <v>0.17230000000000001</v>
+        <v>0</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -6711,7 +6711,7 @@
         <v>2.1700000000000001E-2</v>
       </c>
       <c r="E86">
-        <v>0.36599999999999999</v>
+        <v>0</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -6734,7 +6734,7 @@
         <v>9.4000000000000004E-3</v>
       </c>
       <c r="E87">
-        <v>0.17100000000000001</v>
+        <v>0</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -6757,7 +6757,7 @@
         <v>0.32</v>
       </c>
       <c r="E88">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -6827,7 +6827,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -6848,8 +6848,8 @@
         <v>6</v>
       </c>
       <c r="B2" s="1">
-        <f>B3*1000/2</f>
-        <v>30000</v>
+        <f>B3*1000</f>
+        <v>60000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -6888,7 +6888,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
